--- a/biology/Médecine/1702_en_santé_et_médecine/1702_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1702_en_santé_et_médecine/1702_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1702_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1702_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1702 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1702_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1702_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1702-1703 : au Québec, une épidémie de variole fait entre deux et trois mille morts, dont trois à quatre cents dans la ville de Québec[1].
-Charles Bernard, barbier chirurgien anglais, est nommé chirurgien de la Maison Royale d'Anne, reine de Grande-Bretagne et d'Irlande[2].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1702-1703 : au Québec, une épidémie de variole fait entre deux et trois mille morts, dont trois à quatre cents dans la ville de Québec.
+Charles Bernard, barbier chirurgien anglais, est nommé chirurgien de la Maison Royale d'Anne, reine de Grande-Bretagne et d'Irlande.</t>
         </is>
       </c>
     </row>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1702_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1702_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,10 +556,12 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>William Cowper : Glandularum quarundam nuper detectarum ductuumque earum excretionum descriptio cum figuris où il décrit les glandes bulbo-urétrales aussi appelées glandes de Cowper[3].
-Daniel Le Clerc : Histoire de la médecine[4].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>William Cowper : Glandularum quarundam nuper detectarum ductuumque earum excretionum descriptio cum figuris où il décrit les glandes bulbo-urétrales aussi appelées glandes de Cowper.
+Daniel Le Clerc : Histoire de la médecine.</t>
         </is>
       </c>
     </row>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1702_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1702_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,9 +589,11 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1er juin : François Chicoyneau (mort en 1740), médecin et botaniste français[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1er juin : François Chicoyneau (mort en 1740), médecin et botaniste français.
 14 septembre : Ercole Lelli (mort en 1766),  anatomiste, sculpteur et peintre italien.</t>
         </is>
       </c>
@@ -586,7 +604,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1702_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1702_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -604,10 +622,12 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Avril : Clopton Havers (né en 1657), médecin anglais, le premier à observer et décrire les canaux d'Havers.
-12 décembre : Olof Rudbeck (né en 1630),  naturaliste, linguiste et auteur suédois qui découvre le système lymphatique[6].</t>
+12 décembre : Olof Rudbeck (né en 1630),  naturaliste, linguiste et auteur suédois qui découvre le système lymphatique.</t>
         </is>
       </c>
     </row>
